--- a/Question_Set2/Role-specific skills/Database Management and Administration.xlsx
+++ b/Question_Set2/Role-specific skills/Database Management and Administration.xlsx
@@ -16,23 +16,65 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are leading a design review of your database with the following team members:One team leader (yourself)One administrative assistant Three senior developersOne scribe How many people should participate in the decision making, according to the rules of engagement of the design review process?', 'ques_type': 2, 'options': ['1', '3', '6', '7'], 'score': '6'}, {'title': 'True or false: The cost of performance problems is higher in the later phases of the application development life cycle than in the earlier ones.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': 'You are examining the execution of the queries on a database and want to check how the triggers are working.\xa0Which statements will have triggers associated with them?', 'ques_type': 15, 'options': ['CREATE', 'INSERT', 'DELETE', 'UPDATE', 'SET', 'JOIN', 'ALTER'], 'score': ['INSERT', 'DELETE', 'UPDATE']}, {'title': 'You are applying indexing and you want to estimate the storage requirements. The block size is 256 bytes, the overhead size is 16 bytes, and the row size is 60 bytes. How many records can fit on a single index page?', 'ques_type': 2, 'options': ['3', '5', '16', '20'], 'score': '3'}]</t>
+    <t>questions = [
+    {
+        "title": "You are leading a design review of your database with the following team members:One team leader (yourself)One administrative assistant Three senior developersOne scribe How many people should participate in the decision making, according to the rules of engagement of the design review process?",
+        "ques_type": 2,
+        "options": [
+            "1",
+            "3",
+            "6",
+            "7"
+        ],
+        "score": "6"
+    },
+    {
+        "title": "True or false: The cost of performance problems is higher in the later phases of the application development life cycle than in the earlier ones.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "You are examining the execution of the queries on a database and want to check how the triggers are working.\u00a0Which statements will have triggers associated with them?",
+        "ques_type": 15,
+        "options": [
+            "CREATE",
+            "INSERT",
+            "DELETE",
+            "UPDATE",
+            "SET",
+            "JOIN",
+            "ALTER"
+        ],
+        "score": [
+            "INSERT",
+            "DELETE",
+            "UPDATE"
+        ]
+    },
+    {
+        "title": "You are applying indexing and you want to estimate the storage requirements. The block size is 256 bytes, the overhead size is 16 bytes, and the row size is 60 bytes. How many records can fit on a single index page?",
+        "ques_type": 2,
+        "options": [
+            "3",
+            "5",
+            "16",
+            "20"
+        ],
+        "score": "3"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +98,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
